--- a/Code/Results/Cases/Case_4_225/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_225/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.44053566230219</v>
+        <v>12.2618424620122</v>
       </c>
       <c r="C2">
-        <v>7.238227846134147</v>
+        <v>4.650237032091947</v>
       </c>
       <c r="D2">
-        <v>12.1304748624255</v>
+        <v>15.09202394598852</v>
       </c>
       <c r="E2">
-        <v>13.12704686993487</v>
+        <v>16.52090033994226</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.121108180479681</v>
+        <v>3.699854853063714</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.918601588535746</v>
+        <v>9.443349102603365</v>
       </c>
       <c r="K2">
-        <v>11.76782814854265</v>
+        <v>11.7255274943759</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.07094678817224</v>
+        <v>31.05843703583859</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.51856846366828</v>
+        <v>12.05188601409519</v>
       </c>
       <c r="C3">
-        <v>6.814162486636115</v>
+        <v>4.490052121096118</v>
       </c>
       <c r="D3">
-        <v>11.63215182258864</v>
+        <v>15.03404296433571</v>
       </c>
       <c r="E3">
-        <v>12.5980620857772</v>
+        <v>16.46339042045647</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.127727690243483</v>
+        <v>3.702265505868187</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.832393435275461</v>
+        <v>9.452115687963095</v>
       </c>
       <c r="K3">
-        <v>11.0167909461549</v>
+        <v>11.59089284022762</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.90639601589074</v>
+        <v>31.1087812818225</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.92022673846059</v>
+        <v>11.92404742369658</v>
       </c>
       <c r="C4">
-        <v>6.540549630640959</v>
+        <v>4.389631598517343</v>
       </c>
       <c r="D4">
-        <v>11.32374926703644</v>
+        <v>15.00177278806841</v>
       </c>
       <c r="E4">
-        <v>12.27135458601814</v>
+        <v>16.43175411890232</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.131907436298056</v>
+        <v>3.703823486022263</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.782175386996571</v>
+        <v>9.458926873260094</v>
       </c>
       <c r="K4">
-        <v>10.53052469877978</v>
+        <v>11.50995957591305</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.82206631147677</v>
+        <v>31.14579619755863</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.66822178329514</v>
+        <v>11.87229510258514</v>
       </c>
       <c r="C5">
-        <v>6.425738942919771</v>
+        <v>4.348257272616038</v>
       </c>
       <c r="D5">
-        <v>11.19763411486494</v>
+        <v>14.98946943966159</v>
       </c>
       <c r="E5">
-        <v>12.1379192095067</v>
+        <v>16.41979522586885</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.133640689236274</v>
+        <v>3.704478011973797</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.762394548590263</v>
+        <v>9.462061795475929</v>
       </c>
       <c r="K5">
-        <v>10.3260308759177</v>
+        <v>11.47745172940404</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.79176498681147</v>
+        <v>31.16241149343617</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.62588084299975</v>
+        <v>11.86372450434459</v>
       </c>
       <c r="C6">
-        <v>6.406475420723086</v>
+        <v>4.341361874508777</v>
       </c>
       <c r="D6">
-        <v>11.17667172476516</v>
+        <v>14.98747789401924</v>
       </c>
       <c r="E6">
-        <v>12.11574994437548</v>
+        <v>16.41786606375245</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.133930332208812</v>
+        <v>3.704587883424918</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.759151238395179</v>
+        <v>9.462604050042982</v>
       </c>
       <c r="K6">
-        <v>10.29169178268092</v>
+        <v>11.47208347585145</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.78697482066079</v>
+        <v>31.16526284070734</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.91686130197215</v>
+        <v>11.92334798930636</v>
       </c>
       <c r="C7">
-        <v>6.539014630902845</v>
+        <v>4.389075347187974</v>
       </c>
       <c r="D7">
-        <v>11.32204996740789</v>
+        <v>15.00160341945065</v>
       </c>
       <c r="E7">
-        <v>12.26955598902308</v>
+        <v>16.43158904764297</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.131930688950384</v>
+        <v>3.703832233594198</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.781905848077129</v>
+        <v>9.458967697001231</v>
       </c>
       <c r="K7">
-        <v>10.5277924967472</v>
+        <v>11.50951919940024</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.82164138763501</v>
+        <v>31.14601408130514</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.12929441764346</v>
+        <v>12.18926963805131</v>
       </c>
       <c r="C8">
-        <v>7.094764010132468</v>
+        <v>4.595472794945478</v>
       </c>
       <c r="D8">
-        <v>11.95925464362803</v>
+        <v>15.07134693153928</v>
       </c>
       <c r="E8">
-        <v>12.94515102008342</v>
+        <v>16.50031392187938</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.123367249026081</v>
+        <v>3.700669932121581</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.888314540691601</v>
+        <v>9.446075428486617</v>
       </c>
       <c r="K8">
-        <v>11.5140717284655</v>
+        <v>11.67876844179013</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.01066155522228</v>
+        <v>31.07452708449413</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.25406621097563</v>
+        <v>12.71611889554351</v>
       </c>
       <c r="C9">
-        <v>8.079337729064898</v>
+        <v>4.98115709385711</v>
       </c>
       <c r="D9">
-        <v>13.1830382278027</v>
+        <v>15.23407189939706</v>
       </c>
       <c r="E9">
-        <v>14.24802301682617</v>
+        <v>16.6637966851863</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.107442775058708</v>
+        <v>3.695083221568555</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.118450190822958</v>
+        <v>9.432121240747952</v>
       </c>
       <c r="K9">
-        <v>13.25007935500833</v>
+        <v>12.02274077562158</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.51978170162866</v>
+        <v>30.98290499681257</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.66545782643316</v>
+        <v>13.10233241754726</v>
       </c>
       <c r="C10">
-        <v>8.738846581687156</v>
+        <v>5.249741911032868</v>
       </c>
       <c r="D10">
-        <v>14.05935108414342</v>
+        <v>15.36876007266436</v>
       </c>
       <c r="E10">
-        <v>15.1843783099352</v>
+        <v>16.80074597399715</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.096202498671325</v>
+        <v>3.691349127095673</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.300535426972184</v>
+        <v>9.428762698924785</v>
       </c>
       <c r="K10">
-        <v>14.4071124064805</v>
+        <v>12.280546478235</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.98605207320185</v>
+        <v>30.94536448881258</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.27605290105585</v>
+        <v>13.27700420332106</v>
       </c>
       <c r="C11">
-        <v>9.025221385597682</v>
+        <v>5.368164355798664</v>
       </c>
       <c r="D11">
-        <v>14.45201162877036</v>
+        <v>15.43315286358379</v>
       </c>
       <c r="E11">
-        <v>15.60471688325122</v>
+        <v>16.86654137685085</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.091171894191897</v>
+        <v>3.68972994160504</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.386185801359775</v>
+        <v>9.428727568816409</v>
       </c>
       <c r="K11">
-        <v>14.90840989298803</v>
+        <v>12.39845040331282</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.21980715041181</v>
+        <v>30.93477982722794</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.50283392683176</v>
+        <v>13.34293485438944</v>
       </c>
       <c r="C12">
-        <v>9.131727806981704</v>
+        <v>5.412428208145581</v>
       </c>
       <c r="D12">
-        <v>14.59978365365214</v>
+        <v>15.45797036476537</v>
       </c>
       <c r="E12">
-        <v>15.76301941029595</v>
+        <v>16.8919439904057</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.089277300507773</v>
+        <v>3.689128158492463</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.419025015037523</v>
+        <v>9.428928393429221</v>
       </c>
       <c r="K12">
-        <v>15.09469746058133</v>
+        <v>12.44314767121283</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.31156614111446</v>
+        <v>30.93170688485388</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.45418855607572</v>
+        <v>13.3287460548379</v>
       </c>
       <c r="C13">
-        <v>9.108875474259973</v>
+        <v>5.402921580282323</v>
       </c>
       <c r="D13">
-        <v>14.56799995571093</v>
+        <v>15.45260645592268</v>
       </c>
       <c r="E13">
-        <v>15.72896561090691</v>
+        <v>16.8864516644649</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.08968489840936</v>
+        <v>3.689257258652908</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.41193446006528</v>
+        <v>9.428875628083786</v>
       </c>
       <c r="K13">
-        <v>15.05473367719931</v>
+        <v>12.43351974628589</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.29165800641364</v>
+        <v>30.93232708222398</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.29479875467131</v>
+        <v>13.2824330162933</v>
       </c>
       <c r="C14">
-        <v>9.034022406662229</v>
+        <v>5.371817807422059</v>
       </c>
       <c r="D14">
-        <v>14.46418763028304</v>
+        <v>15.43518602177715</v>
       </c>
       <c r="E14">
-        <v>15.61775825577914</v>
+        <v>16.86862159006938</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.091015825691747</v>
+        <v>3.689680205075462</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.388879375012428</v>
+        <v>9.428739802630485</v>
       </c>
       <c r="K14">
-        <v>14.92380653257833</v>
+        <v>12.40212690986348</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.22729052631274</v>
+        <v>30.93450826324984</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.19659253234149</v>
+        <v>13.2540351599013</v>
       </c>
       <c r="C15">
-        <v>8.987921225832547</v>
+        <v>5.352689197245051</v>
       </c>
       <c r="D15">
-        <v>14.40047834509203</v>
+        <v>15.42457145991293</v>
       </c>
       <c r="E15">
-        <v>15.54952567969946</v>
+        <v>16.85776314499051</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.09183236316169</v>
+        <v>3.689940750530615</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.374810276231023</v>
+        <v>9.428684474435114</v>
       </c>
       <c r="K15">
-        <v>14.84315031976875</v>
+        <v>12.38290316065529</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.18828947728112</v>
+        <v>30.93596613521132</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.62492822541938</v>
+        <v>13.09089088725948</v>
       </c>
       <c r="C16">
-        <v>8.719858762109466</v>
+        <v>5.241923594583382</v>
       </c>
       <c r="D16">
-        <v>14.03356385043044</v>
+        <v>15.36461336354422</v>
       </c>
       <c r="E16">
-        <v>15.15678929314727</v>
+        <v>16.79651514515664</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.096532798441601</v>
+        <v>3.691456538664212</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.29499465198908</v>
+        <v>9.428794989109349</v>
       </c>
       <c r="K16">
-        <v>14.3738523445476</v>
+        <v>12.2728503136416</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.97122217248566</v>
+        <v>30.94618701763048</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.26623358085736</v>
+        <v>12.99049743819496</v>
       </c>
       <c r="C17">
-        <v>8.551932902050229</v>
+        <v>5.172980109278705</v>
       </c>
       <c r="D17">
-        <v>13.80689277620363</v>
+        <v>15.32861986008684</v>
       </c>
       <c r="E17">
-        <v>14.9143680264804</v>
+        <v>16.75982628305076</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.099436505285367</v>
+        <v>3.692406737085936</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.246751771626064</v>
+        <v>9.429244758238447</v>
       </c>
       <c r="K17">
-        <v>14.07957861551352</v>
+        <v>12.20546796877192</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.84369386068512</v>
+        <v>30.95412141017975</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.05695595835123</v>
+        <v>12.93266174175565</v>
       </c>
       <c r="C18">
-        <v>8.454060815787722</v>
+        <v>5.13297396113845</v>
       </c>
       <c r="D18">
-        <v>13.675957078492</v>
+        <v>15.30821223889573</v>
       </c>
       <c r="E18">
-        <v>14.77440761466182</v>
+        <v>16.73905390790978</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.101114517179112</v>
+        <v>3.692960750050306</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.219268991277296</v>
+        <v>9.429643989007081</v>
       </c>
       <c r="K18">
-        <v>13.90795914023139</v>
+        <v>12.16677281647076</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.7723727958853</v>
+        <v>30.95929611882149</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.98558623188524</v>
+        <v>12.91306585975029</v>
       </c>
       <c r="C19">
-        <v>8.42070158102544</v>
+        <v>5.11936945623779</v>
       </c>
       <c r="D19">
-        <v>13.63153042183733</v>
+        <v>15.3013536809633</v>
       </c>
       <c r="E19">
-        <v>14.72693136727432</v>
+        <v>16.73207788876006</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.10168405962582</v>
+        <v>3.693149616559283</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.210009379848501</v>
+        <v>9.429803313148479</v>
       </c>
       <c r="K19">
-        <v>13.84944455933181</v>
+        <v>12.15368309179976</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.74856942816064</v>
+        <v>30.96115307993945</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.30472360174483</v>
+        <v>13.00119451493854</v>
       </c>
       <c r="C20">
-        <v>8.569941794501478</v>
+        <v>5.180355961625811</v>
       </c>
       <c r="D20">
-        <v>13.83108081193863</v>
+        <v>15.33242102094147</v>
       </c>
       <c r="E20">
-        <v>14.94022916572381</v>
+        <v>16.76369782154143</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.099126596005037</v>
+        <v>3.692304812720856</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.251859862347494</v>
+        <v>9.429182338131163</v>
       </c>
       <c r="K20">
-        <v>14.11114851034678</v>
+        <v>12.21263487637867</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.8570584571079</v>
+        <v>30.95321352553674</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.34173515045423</v>
+        <v>13.29604260084683</v>
       </c>
       <c r="C21">
-        <v>9.056060932152803</v>
+        <v>5.380969777787831</v>
       </c>
       <c r="D21">
-        <v>14.49470517054534</v>
+        <v>15.44029119315985</v>
       </c>
       <c r="E21">
-        <v>15.65044656917727</v>
+        <v>16.87384561676916</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.090624630756144</v>
+        <v>3.689555667436582</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.395640205074581</v>
+        <v>9.428773891073886</v>
       </c>
       <c r="K21">
-        <v>14.96235866693913</v>
+        <v>12.41134672004634</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.24610783026745</v>
+        <v>30.93384220484709</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.99365657277691</v>
+        <v>13.48746789434061</v>
       </c>
       <c r="C22">
-        <v>9.362489741706954</v>
+        <v>5.508685765785364</v>
       </c>
       <c r="D22">
-        <v>14.92304653636303</v>
+        <v>15.51330869103314</v>
       </c>
       <c r="E22">
-        <v>16.10952717590757</v>
+        <v>16.94866630475696</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.085127859573344</v>
+        <v>3.687825171428814</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.491972582577481</v>
+        <v>9.429754743256542</v>
       </c>
       <c r="K22">
-        <v>15.49805446316915</v>
+        <v>12.54148729401529</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.51932554490698</v>
+        <v>30.92663364419945</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.64804754597831</v>
+        <v>13.38543869823746</v>
       </c>
       <c r="C23">
-        <v>9.199965523329626</v>
+        <v>5.440844051452929</v>
       </c>
       <c r="D23">
-        <v>14.69493899285529</v>
+        <v>15.47411283719951</v>
       </c>
       <c r="E23">
-        <v>15.86498770440395</v>
+        <v>16.908479223269</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.0880566510844</v>
+        <v>3.688742729705655</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.440341444687997</v>
+        <v>9.429117265055103</v>
       </c>
       <c r="K23">
-        <v>15.21400931358252</v>
+        <v>12.47201723453865</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.37172742695467</v>
+        <v>30.92998174333018</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.28733179868698</v>
+        <v>12.99635872942937</v>
       </c>
       <c r="C24">
-        <v>8.561804116341943</v>
+        <v>5.177022487000587</v>
       </c>
       <c r="D24">
-        <v>13.82014732569048</v>
+        <v>15.33070162557256</v>
       </c>
       <c r="E24">
-        <v>14.92853917481201</v>
+        <v>16.7619464993918</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.099266678991536</v>
+        <v>3.692350868638458</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.249549707412498</v>
+        <v>9.429210120103123</v>
       </c>
       <c r="K24">
-        <v>14.09688335776313</v>
+        <v>12.2093945777312</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.8510101136074</v>
+        <v>30.9536220703837</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.70587595949526</v>
+        <v>12.57345078116374</v>
       </c>
       <c r="C25">
-        <v>7.824248749137412</v>
+        <v>4.879208067861217</v>
       </c>
       <c r="D25">
-        <v>12.85554778114409</v>
+        <v>15.18733895854464</v>
       </c>
       <c r="E25">
-        <v>13.8987730370191</v>
+        <v>16.61656096549197</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.111664720191063</v>
+        <v>3.696529216973804</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.053902673384863</v>
+        <v>9.43468443686942</v>
       </c>
       <c r="K25">
-        <v>12.80143383621463</v>
+        <v>11.92862840697348</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.36640754676234</v>
+        <v>31.00247317119226</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_225/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_225/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.2618424620122</v>
+        <v>13.44053566230216</v>
       </c>
       <c r="C2">
-        <v>4.650237032091947</v>
+        <v>7.238227846134062</v>
       </c>
       <c r="D2">
-        <v>15.09202394598852</v>
+        <v>12.1304748624256</v>
       </c>
       <c r="E2">
-        <v>16.52090033994226</v>
+        <v>13.12704686993492</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.699854853063714</v>
+        <v>2.12110818047955</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.443349102603365</v>
+        <v>5.918601588535743</v>
       </c>
       <c r="K2">
-        <v>11.7255274943759</v>
+        <v>11.76782814854258</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>31.05843703583859</v>
+        <v>22.07094678817235</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.05188601409519</v>
+        <v>12.51856846366834</v>
       </c>
       <c r="C3">
-        <v>4.490052121096118</v>
+        <v>6.814162486636113</v>
       </c>
       <c r="D3">
-        <v>15.03404296433571</v>
+        <v>11.63215182258869</v>
       </c>
       <c r="E3">
-        <v>16.46339042045647</v>
+        <v>12.59806208577715</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.702265505868187</v>
+        <v>2.127727690243348</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.452115687963095</v>
+        <v>5.832393435275414</v>
       </c>
       <c r="K3">
-        <v>11.59089284022762</v>
+        <v>11.01679094615495</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.1087812818225</v>
+        <v>21.90639601589059</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.92404742369658</v>
+        <v>11.92022673846061</v>
       </c>
       <c r="C4">
-        <v>4.389631598517343</v>
+        <v>6.540549630640896</v>
       </c>
       <c r="D4">
-        <v>15.00177278806841</v>
+        <v>11.32374926703636</v>
       </c>
       <c r="E4">
-        <v>16.43175411890232</v>
+        <v>12.27135458601809</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.703823486022263</v>
+        <v>2.131907436297922</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.458926873260094</v>
+        <v>5.782175386996598</v>
       </c>
       <c r="K4">
-        <v>11.50995957591305</v>
+        <v>10.53052469877976</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.14579619755863</v>
+        <v>21.82206631147651</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.87229510258514</v>
+        <v>11.66822178329512</v>
       </c>
       <c r="C5">
-        <v>4.348257272616038</v>
+        <v>6.425738942919931</v>
       </c>
       <c r="D5">
-        <v>14.98946943966159</v>
+        <v>11.19763411486499</v>
       </c>
       <c r="E5">
-        <v>16.41979522586885</v>
+        <v>12.13791920950668</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.704478011973797</v>
+        <v>2.133640689236405</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.462061795475929</v>
+        <v>5.762394548590202</v>
       </c>
       <c r="K5">
-        <v>11.47745172940404</v>
+        <v>10.32603087591774</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.16241149343617</v>
+        <v>21.79176498681122</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.86372450434459</v>
+        <v>11.62588084299978</v>
       </c>
       <c r="C6">
-        <v>4.341361874508777</v>
+        <v>6.406475420722998</v>
       </c>
       <c r="D6">
-        <v>14.98747789401924</v>
+        <v>11.17667172476499</v>
       </c>
       <c r="E6">
-        <v>16.41786606375245</v>
+        <v>12.11574994437545</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.704587883424918</v>
+        <v>2.133930332208411</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.462604050042982</v>
+        <v>5.759151238395252</v>
       </c>
       <c r="K6">
-        <v>11.47208347585145</v>
+        <v>10.29169178268096</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.16526284070734</v>
+        <v>21.78697482066074</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.92334798930636</v>
+        <v>11.91686130197215</v>
       </c>
       <c r="C7">
-        <v>4.389075347187974</v>
+        <v>6.539014630902845</v>
       </c>
       <c r="D7">
-        <v>15.00160341945065</v>
+        <v>11.32204996740779</v>
       </c>
       <c r="E7">
-        <v>16.43158904764297</v>
+        <v>12.26955598902301</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.703832233594198</v>
+        <v>2.131930688950117</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.458967697001231</v>
+        <v>5.781905848077129</v>
       </c>
       <c r="K7">
-        <v>11.50951919940024</v>
+        <v>10.5277924967472</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.14601408130514</v>
+        <v>21.82164138763487</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.18926963805131</v>
+        <v>13.12929441764344</v>
       </c>
       <c r="C8">
-        <v>4.595472794945478</v>
+        <v>7.094764010132539</v>
       </c>
       <c r="D8">
-        <v>15.07134693153928</v>
+        <v>11.95925464362812</v>
       </c>
       <c r="E8">
-        <v>16.50031392187938</v>
+        <v>12.94515102008345</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.700669932121581</v>
+        <v>2.123367249026215</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.446075428486617</v>
+        <v>5.888314540691598</v>
       </c>
       <c r="K8">
-        <v>11.67876844179013</v>
+        <v>11.5140717284655</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>31.07452708449413</v>
+        <v>22.01066155522227</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.71611889554351</v>
+        <v>15.25406621097573</v>
       </c>
       <c r="C9">
-        <v>4.98115709385711</v>
+        <v>8.079337729064989</v>
       </c>
       <c r="D9">
-        <v>15.23407189939706</v>
+        <v>13.18303822780269</v>
       </c>
       <c r="E9">
-        <v>16.6637966851863</v>
+        <v>14.24802301682617</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.695083221568555</v>
+        <v>2.107442775058575</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.432121240747952</v>
+        <v>6.118450190822977</v>
       </c>
       <c r="K9">
-        <v>12.02274077562158</v>
+        <v>13.25007935500845</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.98290499681257</v>
+        <v>22.5197817016285</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.10233241754726</v>
+        <v>16.66545782643309</v>
       </c>
       <c r="C10">
-        <v>5.249741911032868</v>
+        <v>8.738846581687163</v>
       </c>
       <c r="D10">
-        <v>15.36876007266436</v>
+        <v>14.05935108414345</v>
       </c>
       <c r="E10">
-        <v>16.80074597399715</v>
+        <v>15.18437830993521</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.691349127095673</v>
+        <v>2.096202498671591</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.428762698924785</v>
+        <v>6.300535426972148</v>
       </c>
       <c r="K10">
-        <v>12.280546478235</v>
+        <v>14.40711240648045</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>30.94536448881258</v>
+        <v>22.98605207320191</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.27700420332106</v>
+        <v>17.2760529010559</v>
       </c>
       <c r="C11">
-        <v>5.368164355798664</v>
+        <v>9.025221385597588</v>
       </c>
       <c r="D11">
-        <v>15.43315286358379</v>
+        <v>14.45201162877033</v>
       </c>
       <c r="E11">
-        <v>16.86654137685085</v>
+        <v>15.60471688325119</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.68972994160504</v>
+        <v>2.091171894191763</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.428727568816409</v>
+        <v>6.386185801359701</v>
       </c>
       <c r="K11">
-        <v>12.39845040331282</v>
+        <v>14.90840989298804</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>30.93477982722794</v>
+        <v>23.21980715041177</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.34293485438944</v>
+        <v>17.50283392683184</v>
       </c>
       <c r="C12">
-        <v>5.412428208145581</v>
+        <v>9.131727806981658</v>
       </c>
       <c r="D12">
-        <v>15.45797036476537</v>
+        <v>14.59978365365212</v>
       </c>
       <c r="E12">
-        <v>16.8919439904057</v>
+        <v>15.76301941029593</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.689128158492463</v>
+        <v>2.089277300507777</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.428928393429221</v>
+        <v>6.41902501503745</v>
       </c>
       <c r="K12">
-        <v>12.44314767121283</v>
+        <v>15.09469746058142</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>30.93170688485388</v>
+        <v>23.31156614111428</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.3287460548379</v>
+        <v>17.45418855607576</v>
       </c>
       <c r="C13">
-        <v>5.402921580282323</v>
+        <v>9.108875474260024</v>
       </c>
       <c r="D13">
-        <v>15.45260645592268</v>
+        <v>14.5679999557109</v>
       </c>
       <c r="E13">
-        <v>16.8864516644649</v>
+        <v>15.72896561090692</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.689257258652908</v>
+        <v>2.089684898409492</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.428875628083786</v>
+        <v>6.411934460065312</v>
       </c>
       <c r="K13">
-        <v>12.43351974628589</v>
+        <v>15.05473367719932</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>30.93232708222398</v>
+        <v>23.29165800641361</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.2824330162933</v>
+        <v>17.29479875467123</v>
       </c>
       <c r="C14">
-        <v>5.371817807422059</v>
+        <v>9.034022406662162</v>
       </c>
       <c r="D14">
-        <v>15.43518602177715</v>
+        <v>14.46418763028302</v>
       </c>
       <c r="E14">
-        <v>16.86862159006938</v>
+        <v>15.61775825577913</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.689680205075462</v>
+        <v>2.091015825691612</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.428739802630485</v>
+        <v>6.388879375012439</v>
       </c>
       <c r="K14">
-        <v>12.40212690986348</v>
+        <v>14.92380653257826</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>30.93450826324984</v>
+        <v>23.22729052631287</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.2540351599013</v>
+        <v>17.1965925323415</v>
       </c>
       <c r="C15">
-        <v>5.352689197245051</v>
+        <v>8.987921225832475</v>
       </c>
       <c r="D15">
-        <v>15.42457145991293</v>
+        <v>14.40047834509198</v>
       </c>
       <c r="E15">
-        <v>16.85776314499051</v>
+        <v>15.54952567969941</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.689940750530615</v>
+        <v>2.091832363161826</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.428684474435114</v>
+        <v>6.374810276230962</v>
       </c>
       <c r="K15">
-        <v>12.38290316065529</v>
+        <v>14.84315031976877</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>30.93596613521132</v>
+        <v>23.18828947728101</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.09089088725948</v>
+        <v>16.62492822541925</v>
       </c>
       <c r="C16">
-        <v>5.241923594583382</v>
+        <v>8.719858762109533</v>
       </c>
       <c r="D16">
-        <v>15.36461336354422</v>
+        <v>14.03356385043043</v>
       </c>
       <c r="E16">
-        <v>16.79651514515664</v>
+        <v>15.15678929314726</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.691456538664212</v>
+        <v>2.096532798441333</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.428794989109349</v>
+        <v>6.294994651989033</v>
       </c>
       <c r="K16">
-        <v>12.2728503136416</v>
+        <v>14.37385234454751</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>30.94618701763048</v>
+        <v>22.97122217248587</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.99049743819496</v>
+        <v>16.26623358085738</v>
       </c>
       <c r="C17">
-        <v>5.172980109278705</v>
+        <v>8.551932902050385</v>
       </c>
       <c r="D17">
-        <v>15.32861986008684</v>
+        <v>13.80689277620366</v>
       </c>
       <c r="E17">
-        <v>16.75982628305076</v>
+        <v>14.91436802648041</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.692406737085936</v>
+        <v>2.099436505285366</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.429244758238447</v>
+        <v>6.24675177162606</v>
       </c>
       <c r="K17">
-        <v>12.20546796877192</v>
+        <v>14.07957861551358</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>30.95412141017975</v>
+        <v>22.84369386068503</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.93266174175565</v>
+        <v>16.05695595835128</v>
       </c>
       <c r="C18">
-        <v>5.13297396113845</v>
+        <v>8.454060815787795</v>
       </c>
       <c r="D18">
-        <v>15.30821223889573</v>
+        <v>13.67595707849202</v>
       </c>
       <c r="E18">
-        <v>16.73905390790978</v>
+        <v>14.77440761466184</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.692960750050306</v>
+        <v>2.101114517179112</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.429643989007081</v>
+        <v>6.219268991277317</v>
       </c>
       <c r="K18">
-        <v>12.16677281647076</v>
+        <v>13.90795914023142</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.95929611882149</v>
+        <v>22.77237279588512</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.91306585975029</v>
+        <v>15.98558623188522</v>
       </c>
       <c r="C19">
-        <v>5.11936945623779</v>
+        <v>8.420701581025405</v>
       </c>
       <c r="D19">
-        <v>15.3013536809633</v>
+        <v>13.63153042183743</v>
       </c>
       <c r="E19">
-        <v>16.73207788876006</v>
+        <v>14.7269313672744</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.693149616559283</v>
+        <v>2.101684059626354</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.429803313148479</v>
+        <v>6.210009379848564</v>
       </c>
       <c r="K19">
-        <v>12.15368309179976</v>
+        <v>13.84944455933178</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.96115307993945</v>
+        <v>22.7485694281608</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.00119451493854</v>
+        <v>16.30472360174484</v>
       </c>
       <c r="C20">
-        <v>5.180355961625811</v>
+        <v>8.569941794501394</v>
       </c>
       <c r="D20">
-        <v>15.33242102094147</v>
+        <v>13.83108081193864</v>
       </c>
       <c r="E20">
-        <v>16.76369782154143</v>
+        <v>14.94022916572381</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.692304812720856</v>
+        <v>2.09912659600477</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.429182338131163</v>
+        <v>6.251859862347471</v>
       </c>
       <c r="K20">
-        <v>12.21263487637867</v>
+        <v>14.11114851034678</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>30.95321352553674</v>
+        <v>22.85705845710786</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.29604260084683</v>
+        <v>17.34173515045421</v>
       </c>
       <c r="C21">
-        <v>5.380969777787831</v>
+        <v>9.056060932152945</v>
       </c>
       <c r="D21">
-        <v>15.44029119315985</v>
+        <v>14.49470517054537</v>
       </c>
       <c r="E21">
-        <v>16.87384561676916</v>
+        <v>15.6504465691773</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.689555667436582</v>
+        <v>2.090624630756277</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.428773891073886</v>
+        <v>6.395640205074591</v>
       </c>
       <c r="K21">
-        <v>12.41134672004634</v>
+        <v>14.96235866693917</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>30.93384220484709</v>
+        <v>23.24610783026742</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.48746789434061</v>
+        <v>17.9936565727769</v>
       </c>
       <c r="C22">
-        <v>5.508685765785364</v>
+        <v>9.362489741707183</v>
       </c>
       <c r="D22">
-        <v>15.51330869103314</v>
+        <v>14.92304653636306</v>
       </c>
       <c r="E22">
-        <v>16.94866630475696</v>
+        <v>16.10952717590759</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.687825171428814</v>
+        <v>2.085127859573473</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.429754743256542</v>
+        <v>6.491972582577481</v>
       </c>
       <c r="K22">
-        <v>12.54148729401529</v>
+        <v>15.49805446316921</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>30.92663364419945</v>
+        <v>23.51932554490694</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.38543869823746</v>
+        <v>17.64804754597832</v>
       </c>
       <c r="C23">
-        <v>5.440844051452929</v>
+        <v>9.199965523329535</v>
       </c>
       <c r="D23">
-        <v>15.47411283719951</v>
+        <v>14.69493899285527</v>
       </c>
       <c r="E23">
-        <v>16.908479223269</v>
+        <v>15.86498770440396</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.688742729705655</v>
+        <v>2.088056651084264</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.429117265055103</v>
+        <v>6.440341444688041</v>
       </c>
       <c r="K23">
-        <v>12.47201723453865</v>
+        <v>15.21400931358251</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>30.92998174333018</v>
+        <v>23.37172742695473</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.99635872942937</v>
+        <v>16.28733179868697</v>
       </c>
       <c r="C24">
-        <v>5.177022487000587</v>
+        <v>8.561804116341785</v>
       </c>
       <c r="D24">
-        <v>15.33070162557256</v>
+        <v>13.8201473256905</v>
       </c>
       <c r="E24">
-        <v>16.7619464993918</v>
+        <v>14.92853917481199</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.692350868638458</v>
+        <v>2.099266678991137</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.429210120103123</v>
+        <v>6.249549707412486</v>
       </c>
       <c r="K24">
-        <v>12.2093945777312</v>
+        <v>14.0968833577631</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>30.9536220703837</v>
+        <v>22.85101011360743</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.57345078116374</v>
+        <v>14.70587595949527</v>
       </c>
       <c r="C25">
-        <v>4.879208067861217</v>
+        <v>7.824248749137504</v>
       </c>
       <c r="D25">
-        <v>15.18733895854464</v>
+        <v>12.85554778114413</v>
       </c>
       <c r="E25">
-        <v>16.61656096549197</v>
+        <v>13.89877303701912</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.696529216973804</v>
+        <v>2.111664720190928</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.43468443686942</v>
+        <v>6.053902673384943</v>
       </c>
       <c r="K25">
-        <v>11.92862840697348</v>
+        <v>12.80143383621469</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.00247317119226</v>
+        <v>22.36640754676238</v>
       </c>
     </row>
   </sheetData>
